--- a/saved_kpis/vendor_ontime/table.xlsx
+++ b/saved_kpis/vendor_ontime/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Late_POs</t>
+          <t>Delayed_POs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>On_Time_Pct</t>
+          <t>On_Time %</t>
         </is>
       </c>
     </row>
@@ -466,14 +466,20 @@
           <t>A.K.PACKAGING</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>28.57</v>
@@ -485,14 +491,20 @@
           <t>ABHISHEK BALASO KESARKAR</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>77.78</v>
@@ -504,14 +516,20 @@
           <t>ACN PLASTIC</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>44</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>63.64</v>
@@ -523,14 +541,20 @@
           <t>ALFA PACKAGING</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -542,14 +566,20 @@
           <t>AMAN ENTERPRISES</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>100</v>
@@ -561,14 +591,20 @@
           <t>AMAN SPRING PRODUCTS</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -580,14 +616,20 @@
           <t>AMAR INDUSTRIES - SL</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>66.67</v>
@@ -599,14 +641,20 @@
           <t>AMAZING GRAPHICS</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -618,14 +666,20 @@
           <t>AMIT KUMAR PATEL - JW</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>77.78</v>
@@ -637,14 +691,20 @@
           <t>AMPRO INDUSTRIES</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>44.44</v>
@@ -656,14 +716,20 @@
           <t>ANIL KUMAR PASWAN</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>75</v>
@@ -675,14 +741,20 @@
           <t>ANMOL CORRUPACK PVT LTD</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -694,14 +766,20 @@
           <t>ANSHIKA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>37.5</v>
@@ -713,14 +791,20 @@
           <t>ARCHANA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>36.36</v>
@@ -732,14 +816,20 @@
           <t>ARIHANT COMPONENTS</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>33.33</v>
@@ -751,14 +841,20 @@
           <t>ARIHANT INDUSTRIES</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>41.67</v>
@@ -770,14 +866,20 @@
           <t>ARUN MISHRA - JW</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>76.92</v>
@@ -789,14 +891,20 @@
           <t>ARVIND PRATAP</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>100</v>
@@ -808,14 +916,20 @@
           <t>ASHOK DIES WORKS</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -827,14 +941,20 @@
           <t>ASHOK R SINGHDA</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>40</v>
@@ -846,14 +966,20 @@
           <t>ASHOKA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -865,14 +991,20 @@
           <t>AUTOTEK CABLES PVT.LTD.</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>15</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>80</v>
@@ -884,14 +1016,20 @@
           <t>AVI ENTERPRISES</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>69.23</v>
@@ -903,14 +1041,20 @@
           <t>AWANT KUMAR - JW</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>14</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>71.43000000000001</v>
@@ -922,14 +1066,20 @@
           <t>Acer Industries</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -941,14 +1091,20 @@
           <t>Anchal Singh</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>10</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -960,14 +1116,20 @@
           <t>Angel Brass Industries</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>14.29</v>
@@ -979,14 +1141,20 @@
           <t>Angel Enterprise</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>9</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>100</v>
@@ -998,14 +1166,20 @@
           <t>Anil Patel - JW</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E30" t="n">
         <v>100</v>
@@ -1017,14 +1191,20 @@
           <t>Argus Polymers Pvt Ltd</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E31" t="n">
         <v>100</v>
@@ -1036,14 +1216,20 @@
           <t>Arihant Enterprise - Dim</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1055,14 +1241,20 @@
           <t>Arvind Chaudhary</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1074,14 +1266,20 @@
           <t>Ashish Kumar Tripathi</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>4</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>50</v>
@@ -1093,14 +1291,20 @@
           <t>B R POLYMERS PVT LTD</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E35" t="n">
         <v>100</v>
@@ -1112,14 +1316,20 @@
           <t>BHAGYODAY PRODUCTS</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>10</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E36" t="n">
         <v>40</v>
@@ -1131,14 +1341,20 @@
           <t>BHAUSAHEB B. PATIL</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1150,14 +1366,20 @@
           <t>BNB ENTERPRISE</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>16</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>43.75</v>
@@ -1169,14 +1391,20 @@
           <t>BRAINTECH MEDIA</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>100</v>
@@ -1188,14 +1416,20 @@
           <t>BRS ELECTRONICS</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1207,14 +1441,20 @@
           <t>Baaz Industries</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v>100</v>
@@ -1226,14 +1466,20 @@
           <t>Bhagwati Thermopack</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E42" t="n">
         <v>50</v>
@@ -1245,14 +1491,20 @@
           <t>Bombay Electrical components</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E43" t="n">
         <v>87.5</v>
@@ -1264,14 +1516,20 @@
           <t>C.KOTHARI &amp; CO.</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E44" t="n">
         <v>28.57</v>
@@ -1283,14 +1541,20 @@
           <t>Chetan Khadase</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E45" t="n">
         <v>60</v>
@@ -1302,14 +1566,20 @@
           <t>Chintamani Enterprises</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E46" t="n">
         <v>100</v>
@@ -1321,14 +1591,20 @@
           <t>Chitra Industries</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1340,14 +1616,20 @@
           <t>Club India</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E48" t="n">
         <v>100</v>
@@ -1359,14 +1641,20 @@
           <t>D.R.POLYMERS PVT.LTD.</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>16</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>8</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E49" t="n">
         <v>50</v>
@@ -1378,14 +1666,20 @@
           <t>D.S. Computer Graphics</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E50" t="n">
         <v>50</v>
@@ -1397,14 +1691,20 @@
           <t>DEEPAK KUMAR SHARMA</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>24</v>
-      </c>
-      <c r="C51" t="n">
-        <v>24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E51" t="n">
         <v>100</v>
@@ -1416,14 +1716,20 @@
           <t>DEVANAND ASHOK KHADSE</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E52" t="n">
         <v>77.78</v>
@@ -1435,14 +1741,20 @@
           <t>DEVANSH ENTERPRISES</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E53" t="n">
         <v>100</v>
@@ -1454,14 +1766,20 @@
           <t>DHARMENDRA YADAV</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>7</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E54" t="n">
         <v>71.43000000000001</v>
@@ -1473,14 +1791,20 @@
           <t>DHARMIN ENTERPRISE</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>23</v>
-      </c>
-      <c r="C55" t="n">
-        <v>16</v>
-      </c>
-      <c r="D55" t="n">
-        <v>7</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>69.56999999999999</v>
@@ -1492,14 +1816,20 @@
           <t>DURGA ENTERPRISES - JW</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1511,14 +1841,20 @@
           <t>DURGESH METAL FINISHING WORKS</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E57" t="n">
         <v>14.29</v>
@@ -1530,14 +1866,20 @@
           <t>DURVESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E58" t="n">
         <v>50</v>
@@ -1549,14 +1891,20 @@
           <t>Deon Tapes Industries Private Limited</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>4</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E59" t="n">
         <v>25</v>
@@ -1568,14 +1916,20 @@
           <t>Dev Packaging</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1587,14 +1941,20 @@
           <t>Dheeraj Kumar</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>6</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E61" t="n">
         <v>66.67</v>
@@ -1606,14 +1966,20 @@
           <t>Drishti metals co.-HD</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>4</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E62" t="n">
         <v>100</v>
@@ -1625,14 +1991,20 @@
           <t>EKAKSH POLYMERS</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>6</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>6</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1644,14 +2016,20 @@
           <t>EKTA INSTRUMENT SERVICE</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E64" t="n">
         <v>100</v>
@@ -1663,14 +2041,20 @@
           <t>ELECTRONICA PLASTIC MACHINES PVT.LTD.</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1682,14 +2066,20 @@
           <t>ELIXIR ENGG &amp; ELECTRICAL INDUSTRIES</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E66" t="n">
         <v>50</v>
@@ -1701,14 +2091,20 @@
           <t>EXCEL TRADERS</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E67" t="n">
         <v>100</v>
@@ -1720,14 +2116,20 @@
           <t>Earth Poly Pack</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>7</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E68" t="n">
         <v>100</v>
@@ -1739,14 +2141,20 @@
           <t>Fabrico</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>2</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E69" t="n">
         <v>100</v>
@@ -1758,14 +2166,20 @@
           <t>G R INDUSTRIES</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>19</v>
-      </c>
-      <c r="C70" t="n">
-        <v>15</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E70" t="n">
         <v>78.95</v>
@@ -1777,14 +2191,20 @@
           <t>G.KHANNA &amp; CO.</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E71" t="n">
         <v>100</v>
@@ -1796,14 +2216,20 @@
           <t>G.KHANNA and CO.</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>15</v>
-      </c>
-      <c r="C72" t="n">
-        <v>13</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E72" t="n">
         <v>86.67</v>
@@ -1815,14 +2241,20 @@
           <t>GAIN ELECTRONICS</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>3</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E73" t="n">
         <v>33.33</v>
@@ -1834,14 +2266,20 @@
           <t>GAURI DEVI - JW</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E74" t="n">
         <v>62.5</v>
@@ -1853,14 +2291,20 @@
           <t>GAYATRI</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E75" t="n">
         <v>100</v>
@@ -1872,14 +2316,20 @@
           <t>GEO-BOND ADHESIVES</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E76" t="n">
         <v>40</v>
@@ -1891,14 +2341,20 @@
           <t>GHANSHYAM SINGH</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E77" t="n">
         <v>57.14</v>
@@ -1910,14 +2366,20 @@
           <t>GIRI ENTERPRISES</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>11</v>
-      </c>
-      <c r="C78" t="n">
-        <v>5</v>
-      </c>
-      <c r="D78" t="n">
-        <v>6</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E78" t="n">
         <v>45.45</v>
@@ -1929,14 +2391,20 @@
           <t>GLOBAL STAR COMPONENTS PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>5</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E79" t="n">
         <v>37.5</v>
@@ -1948,14 +2416,20 @@
           <t>Gem Enterprises</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>17</v>
-      </c>
-      <c r="C80" t="n">
-        <v>11</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E80" t="n">
         <v>64.70999999999999</v>
@@ -1967,14 +2441,20 @@
           <t>Gyanesh Print And Pack</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>16</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E81" t="n">
         <v>68.75</v>
@@ -1986,14 +2466,20 @@
           <t>HARI OM KIRANA STORE</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>7</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>7</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2005,14 +2491,20 @@
           <t>HARIA METALS</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>10</v>
-      </c>
-      <c r="C83" t="n">
-        <v>4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E83" t="n">
         <v>40</v>
@@ -2024,14 +2516,20 @@
           <t>HIMALAYA POLYPLAST INDUSTRY</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E84" t="n">
         <v>50</v>
@@ -2043,14 +2541,20 @@
           <t>HITECH SCREWS &amp; RIVETS</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>6</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2062,14 +2566,20 @@
           <t>HITECH SCREWS and RIVETS</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E86" t="n">
         <v>20</v>
@@ -2081,14 +2591,20 @@
           <t>Harshali Optoelectronics Private Limited</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E87" t="n">
         <v>66.67</v>
@@ -2100,14 +2616,20 @@
           <t>INDRA PRAKASHSO SURYA PRAKASH - JW</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>9</v>
-      </c>
-      <c r="C88" t="n">
-        <v>4</v>
-      </c>
-      <c r="D88" t="n">
-        <v>5</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E88" t="n">
         <v>44.44</v>
@@ -2119,14 +2641,20 @@
           <t>INDRAMANI ENTERPRISES</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E89" t="n">
         <v>42.86</v>
@@ -2138,14 +2666,20 @@
           <t>Ib enterprises</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E90" t="n">
         <v>100</v>
@@ -2157,14 +2691,20 @@
           <t>InnovativeX Solutions</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E91" t="n">
         <v>100</v>
@@ -2176,14 +2716,20 @@
           <t>J &amp; K INDUSTRIES</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E92" t="n">
         <v>100</v>
@@ -2195,14 +2741,20 @@
           <t>J.K.Plast</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2214,14 +2766,20 @@
           <t>J.M.D</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>4</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2233,14 +2791,20 @@
           <t>J.N.ELECTRICALS</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E95" t="n">
         <v>66.67</v>
@@ -2252,14 +2816,20 @@
           <t>JAI AMBE ENTERPRISE</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>16</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E96" t="n">
         <v>31.25</v>
@@ -2271,14 +2841,20 @@
           <t>JAI BHARAT INDUSTRY</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>12</v>
-      </c>
-      <c r="C97" t="n">
-        <v>11</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E97" t="n">
         <v>91.67</v>
@@ -2290,14 +2866,20 @@
           <t>JAI DURGE ENTERPRISE</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E98" t="n">
         <v>100</v>
@@ -2309,14 +2891,20 @@
           <t>JAYESH INDUSTRIES</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>14</v>
-      </c>
-      <c r="C99" t="n">
-        <v>10</v>
-      </c>
-      <c r="D99" t="n">
-        <v>4</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E99" t="n">
         <v>71.43000000000001</v>
@@ -2328,14 +2916,20 @@
           <t>JITENDRA YADAY - JW</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E100" t="n">
         <v>100</v>
@@ -2347,14 +2941,20 @@
           <t>JP Engineering Works</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E101" t="n">
         <v>100</v>
@@ -2366,14 +2966,20 @@
           <t>JR Engineers</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2385,14 +2991,20 @@
           <t>Jitender plastic</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>6</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>5</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E103" t="n">
         <v>16.67</v>
@@ -2404,14 +3016,20 @@
           <t>K.P.ENTERPRISES</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>4</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E104" t="n">
         <v>42.86</v>
@@ -2423,14 +3041,20 @@
           <t>K.R.Industries</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E105" t="n">
         <v>60</v>
@@ -2442,14 +3066,20 @@
           <t>KALA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>3</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>3</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2461,14 +3091,20 @@
           <t>KANKAI ENTERPRISES</t>
         </is>
       </c>
-      <c r="B107" t="n">
-        <v>23</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>14</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="E107" t="n">
         <v>39.13</v>
@@ -2480,14 +3116,20 @@
           <t>KANVAS HOME PRODUCTS</t>
         </is>
       </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E108" t="n">
         <v>100</v>
@@ -2499,14 +3141,20 @@
           <t>KARAN CABLE INDUSTRIES</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2518,14 +3166,20 @@
           <t>KASAT PLASTIC</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>22</v>
-      </c>
-      <c r="C110" t="n">
-        <v>19</v>
-      </c>
-      <c r="D110" t="n">
-        <v>3</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E110" t="n">
         <v>86.36</v>
@@ -2537,14 +3191,20 @@
           <t>KGK JET INDIA PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B111" t="n">
-        <v>4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E111" t="n">
         <v>100</v>
@@ -2556,14 +3216,20 @@
           <t>KHUSHAL FASTENERS</t>
         </is>
       </c>
-      <c r="B112" t="n">
-        <v>2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E112" t="n">
         <v>50</v>
@@ -2575,14 +3241,20 @@
           <t>KHUSHI MULTIPACK SOLUTIONS LLP</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>6</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>3</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E113" t="n">
         <v>50</v>
@@ -2594,14 +3266,20 @@
           <t>KINJAL ENGINEERING WORKS</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>10</v>
-      </c>
-      <c r="C114" t="n">
-        <v>10</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E114" t="n">
         <v>100</v>
@@ -2613,14 +3291,20 @@
           <t>KINJAL PLAST COLOURS</t>
         </is>
       </c>
-      <c r="B115" t="n">
-        <v>3</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E115" t="n">
         <v>66.67</v>
@@ -2632,14 +3316,20 @@
           <t>KMUNOTAG PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E116" t="n">
         <v>66.67</v>
@@ -2651,14 +3341,20 @@
           <t>KOEL SYSTEMS</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -2670,14 +3366,20 @@
           <t>KONNARK POLYMER PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>3</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>3</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2689,14 +3391,20 @@
           <t>KRIMCO INDUSTRIES PVT LTD</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>3</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E119" t="n">
         <v>33.33</v>
@@ -2708,14 +3416,20 @@
           <t>KUTUMBHA BAHADUR KUSHWAHA - JW</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E120" t="n">
         <v>100</v>
@@ -2727,14 +3441,20 @@
           <t>Khushbu</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>12</v>
-      </c>
-      <c r="C121" t="n">
-        <v>10</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E121" t="n">
         <v>83.33</v>
@@ -2746,14 +3466,20 @@
           <t>Khyati Enterprise</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E122" t="n">
         <v>75</v>
@@ -2765,14 +3491,20 @@
           <t>Krisel polymers</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E123" t="n">
         <v>80</v>
@@ -2784,14 +3516,20 @@
           <t>Kuloday Compu Forms</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>7</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E124" t="n">
         <v>57.14</v>
@@ -2803,14 +3541,20 @@
           <t>Kurz India Pvt. Ltd.</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>5</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E125" t="n">
         <v>80</v>
@@ -2822,14 +3566,20 @@
           <t>LALIT ENTERPRISES</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>6</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E126" t="n">
         <v>25</v>
@@ -2841,14 +3591,20 @@
           <t>LALIT TEST EQUIPMENTS</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -2860,14 +3616,20 @@
           <t>LAXMI VINAYAK GAIKWAD</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E128" t="n">
         <v>20</v>
@@ -2879,14 +3641,20 @@
           <t>LEMONLITE</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>2</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E129" t="n">
         <v>50</v>
@@ -2898,14 +3666,20 @@
           <t>LIBESH ENGINEERING WORKS</t>
         </is>
       </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E130" t="n">
         <v>100</v>
@@ -2917,14 +3691,20 @@
           <t>LIBRA PLASTICS</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E131" t="n">
         <v>100</v>
@@ -2936,14 +3716,20 @@
           <t>LOKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="B132" t="n">
-        <v>2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E132" t="n">
         <v>100</v>
@@ -2955,14 +3741,20 @@
           <t>Leo Electrical and Electronic Corporation</t>
         </is>
       </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E133" t="n">
         <v>100</v>
@@ -2974,14 +3766,20 @@
           <t xml:space="preserve">Leo Graphics </t>
         </is>
       </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E134" t="n">
         <v>100</v>
@@ -2993,14 +3791,20 @@
           <t>Lightronics Electro Components Pvt Ltd</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>2</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E135" t="n">
         <v>50</v>
@@ -3012,14 +3816,20 @@
           <t>LincLite Power Controls</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -3031,14 +3841,20 @@
           <t>Lumirise Private Limited</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>3</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -3050,14 +3866,20 @@
           <t>M K Plastics</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -3069,14 +3891,20 @@
           <t>M M ADVERTISING AGENCY</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E139" t="n">
         <v>100</v>
@@ -3088,14 +3916,20 @@
           <t>M.R.ELECTRONICS</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -3107,14 +3941,20 @@
           <t>M.R.ENGINEERING</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>3</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -3126,14 +3966,20 @@
           <t>MAA NARAYANI CREATION</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>4</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -3145,14 +3991,20 @@
           <t>MAHAVIR COMPUTER STATIONERY &amp; XEROX</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>10</v>
-      </c>
-      <c r="C143" t="n">
-        <v>10</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E143" t="n">
         <v>100</v>
@@ -3164,14 +4016,20 @@
           <t>MAHAVIR COMPUTER STATIONERY and XEROX</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>12</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E144" t="n">
         <v>91.67</v>
@@ -3183,14 +4041,20 @@
           <t>MAHAVIR TRADERS</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>6</v>
-      </c>
-      <c r="C145" t="n">
-        <v>3</v>
-      </c>
-      <c r="D145" t="n">
-        <v>3</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E145" t="n">
         <v>50</v>
@@ -3202,14 +4066,20 @@
           <t>MANJESH</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>152</v>
-      </c>
-      <c r="C146" t="n">
-        <v>152</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E146" t="n">
         <v>100</v>
@@ -3221,14 +4091,20 @@
           <t>MEHTA AND COMPANY</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E147" t="n">
         <v>80</v>
@@ -3240,14 +4116,20 @@
           <t>MELCON PLASTICS</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>12</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9</v>
-      </c>
-      <c r="D148" t="n">
-        <v>3</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E148" t="n">
         <v>75</v>
@@ -3259,14 +4141,20 @@
           <t>MIRAJ ENTERPRISE</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E149" t="n">
         <v>75</v>
@@ -3278,14 +4166,20 @@
           <t>MIREN ENTERPRISE</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -3297,14 +4191,20 @@
           <t>MODERN ENGINEERING &amp; SPRING COMPANY</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>3</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E151" t="n">
         <v>57.14</v>
@@ -3316,14 +4216,20 @@
           <t>MOHINI GAIKWAD</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E152" t="n">
         <v>87.5</v>
@@ -3335,14 +4241,20 @@
           <t>MOKSH TRADING CO</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>3</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E153" t="n">
         <v>57.14</v>
@@ -3354,14 +4266,20 @@
           <t>MORYA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>10</v>
-      </c>
-      <c r="C154" t="n">
-        <v>8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>2</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E154" t="n">
         <v>80</v>
@@ -3373,14 +4291,20 @@
           <t>MUKTA PACKAGING</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>6</v>
-      </c>
-      <c r="C155" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E155" t="n">
         <v>33.33</v>
@@ -3392,14 +4316,20 @@
           <t>Magic Retail Ventures Pvt. Ltd.</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -3411,14 +4341,20 @@
           <t>Manoj Enterprises</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>14</v>
-      </c>
-      <c r="C157" t="n">
-        <v>12</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E157" t="n">
         <v>85.70999999999999</v>
@@ -3430,14 +4366,20 @@
           <t>Manoj Patel - JW</t>
         </is>
       </c>
-      <c r="B158" t="n">
-        <v>15</v>
-      </c>
-      <c r="C158" t="n">
-        <v>8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>7</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E158" t="n">
         <v>53.33</v>
@@ -3449,14 +4391,20 @@
           <t>Matrix Technologies</t>
         </is>
       </c>
-      <c r="B159" t="n">
-        <v>5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E159" t="n">
         <v>20</v>
@@ -3468,14 +4416,20 @@
           <t>Mohit Enterprises</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>41</v>
-      </c>
-      <c r="C160" t="n">
-        <v>36</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E160" t="n">
         <v>87.8</v>
@@ -3487,14 +4441,20 @@
           <t>Mukund Jain enterprises</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E161" t="n">
         <v>50</v>
@@ -3506,14 +4466,20 @@
           <t>NAVKAR ELECTRICALS</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>10</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E162" t="n">
         <v>50</v>
@@ -3525,14 +4491,20 @@
           <t>NECTAR BRASS INDUSTRIES</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>23</v>
-      </c>
-      <c r="C163" t="n">
-        <v>18</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E163" t="n">
         <v>78.26000000000001</v>
@@ -3544,14 +4516,20 @@
           <t>NEELANJ BUSINESS SOLUTION LLP</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>2</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E164" t="n">
         <v>50</v>
@@ -3563,14 +4541,20 @@
           <t>NEO PACK (INDIA)</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>5</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E165" t="n">
         <v>100</v>
@@ -3582,14 +4566,20 @@
           <t>NEO TECH SOLUTIONS</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -3601,14 +4591,20 @@
           <t>NEW SANGAM SPRINGS</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>10</v>
-      </c>
-      <c r="C167" t="n">
-        <v>10</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E167" t="n">
         <v>100</v>
@@ -3620,14 +4616,20 @@
           <t>NILKAMAL LIMITED (Silvassa)</t>
         </is>
       </c>
-      <c r="B168" t="n">
-        <v>3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E168" t="n">
         <v>66.67</v>
@@ -3639,14 +4641,20 @@
           <t>NIRANJAN DEORAS PRODUCTIONS</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -3658,14 +4666,20 @@
           <t>NISSAN ADVERTISING CO.</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E170" t="n">
         <v>50</v>
@@ -3677,14 +4691,20 @@
           <t>Nandini Industries</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>2</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E171" t="n">
         <v>28.57</v>
@@ -3696,14 +4716,20 @@
           <t>Neha Enterprises</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>9</v>
-      </c>
-      <c r="C172" t="n">
-        <v>7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>2</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E172" t="n">
         <v>77.78</v>
@@ -3715,14 +4741,20 @@
           <t>New Vama International</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E173" t="n">
         <v>100</v>
@@ -3734,14 +4766,20 @@
           <t>Nilkamal Limited-Andheri</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E174" t="n">
         <v>100</v>
@@ -3753,14 +4791,20 @@
           <t>OM INDUSTRIES-NEW</t>
         </is>
       </c>
-      <c r="B175" t="n">
-        <v>14</v>
-      </c>
-      <c r="C175" t="n">
-        <v>10</v>
-      </c>
-      <c r="D175" t="n">
-        <v>4</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E175" t="n">
         <v>71.43000000000001</v>
@@ -3772,14 +4816,20 @@
           <t>OM SAI ENTERPRISE - JW</t>
         </is>
       </c>
-      <c r="B176" t="n">
-        <v>3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E176" t="n">
         <v>100</v>
@@ -3791,14 +4841,20 @@
           <t>OM SAI ENTERPRISE - SL - JW</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>21</v>
-      </c>
-      <c r="C177" t="n">
-        <v>14</v>
-      </c>
-      <c r="D177" t="n">
-        <v>7</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E177" t="n">
         <v>66.67</v>
@@ -3810,14 +4866,20 @@
           <t>OMKAR multipack Industries</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -3829,14 +4891,20 @@
           <t>P R ENTERPRISES</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>18</v>
-      </c>
-      <c r="C179" t="n">
-        <v>14</v>
-      </c>
-      <c r="D179" t="n">
-        <v>4</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E179" t="n">
         <v>77.78</v>
@@ -3848,14 +4916,20 @@
           <t>P.P.ASSEMBLING</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>17</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>8</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E180" t="n">
         <v>52.94</v>
@@ -3867,14 +4941,20 @@
           <t>P5 MARKETING</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -3886,14 +4966,20 @@
           <t>PAARTH INDUSTRIES</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E182" t="n">
         <v>33.33</v>
@@ -3905,14 +4991,20 @@
           <t>PACKAGING POINT</t>
         </is>
       </c>
-      <c r="B183" t="n">
-        <v>2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E183" t="n">
         <v>100</v>
@@ -3924,14 +5016,20 @@
           <t>PANKAJ POLYMERS</t>
         </is>
       </c>
-      <c r="B184" t="n">
-        <v>10</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E184" t="n">
         <v>90</v>
@@ -3943,14 +5041,20 @@
           <t>PARTHIV PLASTIC IND</t>
         </is>
       </c>
-      <c r="B185" t="n">
-        <v>13</v>
-      </c>
-      <c r="C185" t="n">
-        <v>8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E185" t="n">
         <v>61.54</v>
@@ -3962,14 +5066,20 @@
           <t>PASUPATY INDUSTRIES</t>
         </is>
       </c>
-      <c r="B186" t="n">
-        <v>10</v>
-      </c>
-      <c r="C186" t="n">
-        <v>8</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E186" t="n">
         <v>80</v>
@@ -3981,14 +5091,20 @@
           <t>PC ELECTROCOMP PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E187" t="n">
         <v>100</v>
@@ -4000,14 +5116,20 @@
           <t>PERFECT PACKERS</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E188" t="n">
         <v>40</v>
@@ -4019,14 +5141,20 @@
           <t>PERFECT PRINT CARE</t>
         </is>
       </c>
-      <c r="B189" t="n">
-        <v>2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E189" t="n">
         <v>100</v>
@@ -4038,14 +5166,20 @@
           <t>PLATINUM INDUSTRIES</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>22</v>
-      </c>
-      <c r="C190" t="n">
-        <v>18</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E190" t="n">
         <v>81.81999999999999</v>
@@ -4057,14 +5191,20 @@
           <t>PRAGATI ENTERPRISES</t>
         </is>
       </c>
-      <c r="B191" t="n">
-        <v>22</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7</v>
-      </c>
-      <c r="D191" t="n">
-        <v>15</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="E191" t="n">
         <v>31.82</v>
@@ -4076,14 +5216,20 @@
           <t>PREM MICRO ELECTRONICS</t>
         </is>
       </c>
-      <c r="B192" t="n">
-        <v>6</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E192" t="n">
         <v>100</v>
@@ -4095,14 +5241,20 @@
           <t>PRINT LINE</t>
         </is>
       </c>
-      <c r="B193" t="n">
-        <v>13</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E193" t="n">
         <v>30.77</v>
@@ -4114,14 +5266,20 @@
           <t>PRINT SHOPPE</t>
         </is>
       </c>
-      <c r="B194" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -4133,14 +5291,20 @@
           <t>PRINTSOUK</t>
         </is>
       </c>
-      <c r="B195" t="n">
-        <v>10</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>8</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E195" t="n">
         <v>20</v>
@@ -4152,14 +5316,20 @@
           <t>PRITAM CERAMICS</t>
         </is>
       </c>
-      <c r="B196" t="n">
-        <v>5</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E196" t="n">
         <v>20</v>
@@ -4171,14 +5341,20 @@
           <t>PRIYA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B197" t="n">
-        <v>2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -4190,14 +5366,20 @@
           <t>PW PRINTWAYS INDIA PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B198" t="n">
-        <v>4</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E198" t="n">
         <v>75</v>
@@ -4209,14 +5391,20 @@
           <t>Palak Metals Co.</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>2</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E199" t="n">
         <v>50</v>
@@ -4228,14 +5416,20 @@
           <t>Pankaj Kumar</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>11</v>
-      </c>
-      <c r="C200" t="n">
-        <v>10</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E200" t="n">
         <v>90.91</v>
@@ -4247,14 +5441,20 @@
           <t>Parmar Engineering Works</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>5</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E201" t="n">
         <v>60</v>
@@ -4266,14 +5466,20 @@
           <t>QUALITYZ PACKAGING SOLUTIONS</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E202" t="n">
         <v>100</v>
@@ -4285,14 +5491,20 @@
           <t>R S ENTERPRISES</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>7</v>
-      </c>
-      <c r="C203" t="n">
-        <v>5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E203" t="n">
         <v>71.43000000000001</v>
@@ -4304,14 +5516,20 @@
           <t>RAHUL ENTERPRISES-2</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E204" t="n">
         <v>80</v>
@@ -4323,14 +5541,20 @@
           <t>RAI INNOTECH POLYMERS PVT. LTD.</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>1</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -4342,14 +5566,20 @@
           <t>RAJ RAI</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>6</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E206" t="n">
         <v>83.33</v>
@@ -4361,14 +5591,20 @@
           <t>RAJAN ELETRICALS</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>11</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2</v>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E207" t="n">
         <v>18.18</v>
@@ -4380,14 +5616,20 @@
           <t>RAJENDRAPRASAD R MOURYA</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>3</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E208" t="n">
         <v>66.67</v>
@@ -4399,14 +5641,20 @@
           <t>RAJESHREE INDUSTRIES</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>14</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2</v>
-      </c>
-      <c r="D209" t="n">
-        <v>12</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E209" t="n">
         <v>14.29</v>
@@ -4418,14 +5666,20 @@
           <t>RAJESHWAR TIVARI</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>3</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E210" t="n">
         <v>100</v>
@@ -4437,14 +5691,20 @@
           <t>RAJIV PLASTICS INDUSTRIES</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>6</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E211" t="n">
         <v>50</v>
@@ -4456,14 +5716,20 @@
           <t>RAJU HOTKAR</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>11</v>
-      </c>
-      <c r="C212" t="n">
-        <v>7</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E212" t="n">
         <v>63.64</v>
@@ -4475,14 +5741,20 @@
           <t>RAKESH KUMAR</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E213" t="n">
         <v>100</v>
@@ -4494,14 +5766,20 @@
           <t>RAM ASHRAY PATEL - JW</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>9</v>
-      </c>
-      <c r="C214" t="n">
-        <v>8</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E214" t="n">
         <v>88.89</v>
@@ -4513,14 +5791,20 @@
           <t>RAM KUMAR VERMA - JW</t>
         </is>
       </c>
-      <c r="B215" t="n">
-        <v>4</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E215" t="n">
         <v>50</v>
@@ -4532,14 +5816,20 @@
           <t>RAM LAKHAN</t>
         </is>
       </c>
-      <c r="B216" t="n">
-        <v>3</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E216" t="n">
         <v>100</v>
@@ -4551,14 +5841,20 @@
           <t>RAM LAL RAM CHANDRA (INDIA) LTD.</t>
         </is>
       </c>
-      <c r="B217" t="n">
-        <v>5</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2</v>
-      </c>
-      <c r="D217" t="n">
-        <v>3</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E217" t="n">
         <v>40</v>
@@ -4570,14 +5866,20 @@
           <t>RAM SHARAN - JW</t>
         </is>
       </c>
-      <c r="B218" t="n">
-        <v>16</v>
-      </c>
-      <c r="C218" t="n">
-        <v>12</v>
-      </c>
-      <c r="D218" t="n">
-        <v>4</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E218" t="n">
         <v>75</v>
@@ -4589,14 +5891,20 @@
           <t>RAMANUJ TIWARI - JW</t>
         </is>
       </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E219" t="n">
         <v>100</v>
@@ -4608,14 +5916,20 @@
           <t>RAMESH BRASS PRODUCTS</t>
         </is>
       </c>
-      <c r="B220" t="n">
-        <v>1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E220" t="n">
         <v>0</v>
@@ -4627,14 +5941,20 @@
           <t>RAYLENSE OPTO ELECTRONICS INDUSTRIES PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B221" t="n">
-        <v>14</v>
-      </c>
-      <c r="C221" t="n">
-        <v>7</v>
-      </c>
-      <c r="D221" t="n">
-        <v>7</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E221" t="n">
         <v>50</v>
@@ -4646,14 +5966,20 @@
           <t>REKHA TRADING CO</t>
         </is>
       </c>
-      <c r="B222" t="n">
-        <v>2</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -4665,14 +5991,20 @@
           <t>REPRO POLYTECH</t>
         </is>
       </c>
-      <c r="B223" t="n">
-        <v>7</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E223" t="n">
         <v>85.70999999999999</v>
@@ -4684,14 +6016,20 @@
           <t>RIDDHI SIDDHI CORPORATION</t>
         </is>
       </c>
-      <c r="B224" t="n">
-        <v>40</v>
-      </c>
-      <c r="C224" t="n">
-        <v>33</v>
-      </c>
-      <c r="D224" t="n">
-        <v>7</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E224" t="n">
         <v>82.5</v>
@@ -4703,14 +6041,20 @@
           <t>RIYANSH PACKAGING</t>
         </is>
       </c>
-      <c r="B225" t="n">
-        <v>1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E225" t="n">
         <v>0</v>
@@ -4722,14 +6066,20 @@
           <t>RONCH POLYMERS PVT LTD</t>
         </is>
       </c>
-      <c r="B226" t="n">
-        <v>6</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2</v>
-      </c>
-      <c r="D226" t="n">
-        <v>4</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E226" t="n">
         <v>33.33</v>
@@ -4741,14 +6091,20 @@
           <t>ROYAL CERAMIC</t>
         </is>
       </c>
-      <c r="B227" t="n">
-        <v>1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E227" t="n">
         <v>100</v>
@@ -4760,14 +6116,20 @@
           <t>RUPAL PLASTICS PVT LTD</t>
         </is>
       </c>
-      <c r="B228" t="n">
-        <v>34</v>
-      </c>
-      <c r="C228" t="n">
-        <v>31</v>
-      </c>
-      <c r="D228" t="n">
-        <v>3</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E228" t="n">
         <v>91.18000000000001</v>
@@ -4779,14 +6141,20 @@
           <t xml:space="preserve">Radiant Electronics </t>
         </is>
       </c>
-      <c r="B229" t="n">
-        <v>2</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E229" t="n">
         <v>50</v>
@@ -4798,14 +6166,20 @@
           <t>Raj Dhani Enterprises</t>
         </is>
       </c>
-      <c r="B230" t="n">
-        <v>4</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E230" t="n">
         <v>25</v>
@@ -4817,14 +6191,20 @@
           <t>Rajendra D. Mane</t>
         </is>
       </c>
-      <c r="B231" t="n">
-        <v>10</v>
-      </c>
-      <c r="C231" t="n">
-        <v>6</v>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E231" t="n">
         <v>60</v>
@@ -4836,14 +6216,20 @@
           <t>Ramaya Packaging</t>
         </is>
       </c>
-      <c r="B232" t="n">
-        <v>56</v>
-      </c>
-      <c r="C232" t="n">
-        <v>48</v>
-      </c>
-      <c r="D232" t="n">
-        <v>8</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E232" t="n">
         <v>85.70999999999999</v>
@@ -4855,14 +6241,20 @@
           <t>Rohit Enterprise</t>
         </is>
       </c>
-      <c r="B233" t="n">
-        <v>1</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E233" t="n">
         <v>0</v>
@@ -4874,14 +6266,20 @@
           <t>S M MODULAR LLP</t>
         </is>
       </c>
-      <c r="B234" t="n">
-        <v>3</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E234" t="n">
         <v>100</v>
@@ -4893,14 +6291,20 @@
           <t>S.PLASTICS</t>
         </is>
       </c>
-      <c r="B235" t="n">
-        <v>7</v>
-      </c>
-      <c r="C235" t="n">
-        <v>4</v>
-      </c>
-      <c r="D235" t="n">
-        <v>3</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E235" t="n">
         <v>57.14</v>
@@ -4912,14 +6316,20 @@
           <t>SACHIN VARMA</t>
         </is>
       </c>
-      <c r="B236" t="n">
-        <v>1</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -4931,14 +6341,20 @@
           <t>SADGURU INDUSTRIES</t>
         </is>
       </c>
-      <c r="B237" t="n">
-        <v>6</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4</v>
-      </c>
-      <c r="D237" t="n">
-        <v>2</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E237" t="n">
         <v>66.67</v>
@@ -4950,14 +6366,20 @@
           <t>SAI ENTERPRISES (VENDOR)</t>
         </is>
       </c>
-      <c r="B238" t="n">
-        <v>4</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>3</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E238" t="n">
         <v>25</v>
@@ -4969,14 +6391,20 @@
           <t>SAI PRASAD ELECTRIC WORKS</t>
         </is>
       </c>
-      <c r="B239" t="n">
-        <v>8</v>
-      </c>
-      <c r="C239" t="n">
-        <v>5</v>
-      </c>
-      <c r="D239" t="n">
-        <v>3</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E239" t="n">
         <v>62.5</v>
@@ -4988,14 +6416,20 @@
           <t>SAINATH BACKLITE MOULDING - JW</t>
         </is>
       </c>
-      <c r="B240" t="n">
-        <v>3</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1</v>
-      </c>
-      <c r="D240" t="n">
-        <v>2</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E240" t="n">
         <v>33.33</v>
@@ -5007,14 +6441,20 @@
           <t>SANDEEP KUMAR</t>
         </is>
       </c>
-      <c r="B241" t="n">
-        <v>2</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E241" t="n">
         <v>50</v>
@@ -5026,14 +6466,20 @@
           <t>SANDHYA DEVI</t>
         </is>
       </c>
-      <c r="B242" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E242" t="n">
         <v>0</v>
@@ -5045,14 +6491,20 @@
           <t>SANGEETA PATEL - JW</t>
         </is>
       </c>
-      <c r="B243" t="n">
-        <v>1</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E243" t="n">
         <v>100</v>
@@ -5064,14 +6516,20 @@
           <t>SATISH KUMAR MAURYA - JW</t>
         </is>
       </c>
-      <c r="B244" t="n">
-        <v>18</v>
-      </c>
-      <c r="C244" t="n">
-        <v>12</v>
-      </c>
-      <c r="D244" t="n">
-        <v>6</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E244" t="n">
         <v>66.67</v>
@@ -5083,14 +6541,20 @@
           <t>SATYAM SPRING WORKS</t>
         </is>
       </c>
-      <c r="B245" t="n">
-        <v>3</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E245" t="n">
         <v>100</v>
@@ -5102,14 +6566,20 @@
           <t>SAURABH PATEL</t>
         </is>
       </c>
-      <c r="B246" t="n">
-        <v>4</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2</v>
-      </c>
-      <c r="D246" t="n">
-        <v>2</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E246" t="n">
         <v>50</v>
@@ -5121,14 +6591,20 @@
           <t>SEEMA DEVI - JW</t>
         </is>
       </c>
-      <c r="B247" t="n">
-        <v>1</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E247" t="n">
         <v>100</v>
@@ -5140,14 +6616,20 @@
           <t>SHALU - JW</t>
         </is>
       </c>
-      <c r="B248" t="n">
-        <v>4</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>3</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E248" t="n">
         <v>25</v>
@@ -5159,14 +6641,20 @@
           <t>SHANTIDEVI-JW</t>
         </is>
       </c>
-      <c r="B249" t="n">
-        <v>8</v>
-      </c>
-      <c r="C249" t="n">
-        <v>5</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E249" t="n">
         <v>62.5</v>
@@ -5178,14 +6666,20 @@
           <t>SHIV ENTERPRISES</t>
         </is>
       </c>
-      <c r="B250" t="n">
-        <v>7</v>
-      </c>
-      <c r="C250" t="n">
-        <v>5</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E250" t="n">
         <v>71.43000000000001</v>
@@ -5197,14 +6691,20 @@
           <t>SHIVAKESH PATEL</t>
         </is>
       </c>
-      <c r="B251" t="n">
-        <v>31</v>
-      </c>
-      <c r="C251" t="n">
-        <v>29</v>
-      </c>
-      <c r="D251" t="n">
-        <v>2</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E251" t="n">
         <v>93.55</v>
@@ -5216,14 +6716,20 @@
           <t>SHIVAM ENTERPRISES</t>
         </is>
       </c>
-      <c r="B252" t="n">
-        <v>5</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2</v>
-      </c>
-      <c r="D252" t="n">
-        <v>3</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E252" t="n">
         <v>40</v>
@@ -5235,14 +6741,20 @@
           <t>SHIVOM PRINTERS</t>
         </is>
       </c>
-      <c r="B253" t="n">
-        <v>1</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E253" t="n">
         <v>100</v>
@@ -5254,14 +6766,20 @@
           <t>SHIVPAL ENTERPRISE</t>
         </is>
       </c>
-      <c r="B254" t="n">
-        <v>6</v>
-      </c>
-      <c r="C254" t="n">
-        <v>4</v>
-      </c>
-      <c r="D254" t="n">
-        <v>2</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E254" t="n">
         <v>66.67</v>
@@ -5273,14 +6791,20 @@
           <t>SHOBHA DEVI</t>
         </is>
       </c>
-      <c r="B255" t="n">
-        <v>8</v>
-      </c>
-      <c r="C255" t="n">
-        <v>6</v>
-      </c>
-      <c r="D255" t="n">
-        <v>2</v>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E255" t="n">
         <v>75</v>
@@ -5292,14 +6816,20 @@
           <t>SHREE ADITYA POLYSPIN INDUSTRIES</t>
         </is>
       </c>
-      <c r="B256" t="n">
-        <v>2</v>
-      </c>
-      <c r="C256" t="n">
-        <v>2</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E256" t="n">
         <v>100</v>
@@ -5311,14 +6841,20 @@
           <t>SHREE BALAJI PRINTERS</t>
         </is>
       </c>
-      <c r="B257" t="n">
-        <v>31</v>
-      </c>
-      <c r="C257" t="n">
-        <v>19</v>
-      </c>
-      <c r="D257" t="n">
-        <v>12</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E257" t="n">
         <v>61.29</v>
@@ -5330,14 +6866,20 @@
           <t>SHREE BHERUNATH ENTERPRISES</t>
         </is>
       </c>
-      <c r="B258" t="n">
-        <v>4</v>
-      </c>
-      <c r="C258" t="n">
-        <v>4</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E258" t="n">
         <v>100</v>
@@ -5349,14 +6891,20 @@
           <t>SHREE RADHIKA PLAST LLP</t>
         </is>
       </c>
-      <c r="B259" t="n">
-        <v>1</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E259" t="n">
         <v>100</v>
@@ -5368,14 +6916,20 @@
           <t>SHREE VINAYAK MARKETING</t>
         </is>
       </c>
-      <c r="B260" t="n">
-        <v>1</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0</v>
-      </c>
-      <c r="D260" t="n">
-        <v>1</v>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -5387,14 +6941,20 @@
           <t>SHREEDUTT INDUSTRIES</t>
         </is>
       </c>
-      <c r="B261" t="n">
-        <v>5</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0</v>
-      </c>
-      <c r="D261" t="n">
-        <v>5</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E261" t="n">
         <v>0</v>
@@ -5406,14 +6966,20 @@
           <t>SHRI RAM PETRO TRADE PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B262" t="n">
-        <v>19</v>
-      </c>
-      <c r="C262" t="n">
-        <v>17</v>
-      </c>
-      <c r="D262" t="n">
-        <v>2</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E262" t="n">
         <v>89.47</v>
@@ -5425,14 +6991,20 @@
           <t>SIDDHARTH ONE</t>
         </is>
       </c>
-      <c r="B263" t="n">
-        <v>3</v>
-      </c>
-      <c r="C263" t="n">
-        <v>3</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0</v>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E263" t="n">
         <v>100</v>
@@ -5444,14 +7016,20 @@
           <t>SIDDHISAI INDUSTRIES</t>
         </is>
       </c>
-      <c r="B264" t="n">
-        <v>3</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0</v>
-      </c>
-      <c r="D264" t="n">
-        <v>3</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -5463,14 +7041,20 @@
           <t>SRI DURGE ENTERPRISES</t>
         </is>
       </c>
-      <c r="B265" t="n">
-        <v>7</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3</v>
-      </c>
-      <c r="D265" t="n">
-        <v>4</v>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E265" t="n">
         <v>42.86</v>
@@ -5482,14 +7066,20 @@
           <t>SRI MADHAV PACKERS</t>
         </is>
       </c>
-      <c r="B266" t="n">
-        <v>1</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0</v>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E266" t="n">
         <v>100</v>
@@ -5501,14 +7091,20 @@
           <t>SSG ENERGY INDIA PVT LTD</t>
         </is>
       </c>
-      <c r="B267" t="n">
-        <v>2</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0</v>
-      </c>
-      <c r="D267" t="n">
-        <v>2</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E267" t="n">
         <v>0</v>
@@ -5520,14 +7116,20 @@
           <t>STAR ENTERPRISE</t>
         </is>
       </c>
-      <c r="B268" t="n">
-        <v>1</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0</v>
-      </c>
-      <c r="D268" t="n">
-        <v>1</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E268" t="n">
         <v>0</v>
@@ -5539,14 +7141,20 @@
           <t>STREAMLINE OVERSEAS</t>
         </is>
       </c>
-      <c r="B269" t="n">
-        <v>3</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1</v>
-      </c>
-      <c r="D269" t="n">
-        <v>2</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E269" t="n">
         <v>33.33</v>
@@ -5558,14 +7166,20 @@
           <t>SULOCHANA ORGANIC (P) LTD</t>
         </is>
       </c>
-      <c r="B270" t="n">
-        <v>2</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0</v>
-      </c>
-      <c r="D270" t="n">
-        <v>2</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -5577,14 +7191,20 @@
           <t>SUN LABEL MANUFACTURING</t>
         </is>
       </c>
-      <c r="B271" t="n">
-        <v>4</v>
-      </c>
-      <c r="C271" t="n">
-        <v>4</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E271" t="n">
         <v>100</v>
@@ -5596,14 +7216,20 @@
           <t>SUNRISE POLYMER</t>
         </is>
       </c>
-      <c r="B272" t="n">
-        <v>16</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12</v>
-      </c>
-      <c r="D272" t="n">
-        <v>4</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E272" t="n">
         <v>75</v>
@@ -5615,14 +7241,20 @@
           <t>SUPER SALES</t>
         </is>
       </c>
-      <c r="B273" t="n">
-        <v>1</v>
-      </c>
-      <c r="C273" t="n">
-        <v>1</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E273" t="n">
         <v>100</v>
@@ -5634,14 +7266,20 @@
           <t>SUPREME CORRUGATING INDUSTRIES PVT.LTD.</t>
         </is>
       </c>
-      <c r="B274" t="n">
-        <v>6</v>
-      </c>
-      <c r="C274" t="n">
-        <v>4</v>
-      </c>
-      <c r="D274" t="n">
-        <v>2</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E274" t="n">
         <v>66.67</v>
@@ -5653,14 +7291,20 @@
           <t>SWAROOP CERAMIC</t>
         </is>
       </c>
-      <c r="B275" t="n">
-        <v>6</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3</v>
-      </c>
-      <c r="D275" t="n">
-        <v>3</v>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E275" t="n">
         <v>50</v>
@@ -5672,14 +7316,20 @@
           <t>SWATI RATHOD - JW</t>
         </is>
       </c>
-      <c r="B276" t="n">
-        <v>5</v>
-      </c>
-      <c r="C276" t="n">
-        <v>1</v>
-      </c>
-      <c r="D276" t="n">
-        <v>4</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E276" t="n">
         <v>20</v>
@@ -5691,14 +7341,20 @@
           <t>Satish Brass Product</t>
         </is>
       </c>
-      <c r="B277" t="n">
-        <v>8</v>
-      </c>
-      <c r="C277" t="n">
-        <v>1</v>
-      </c>
-      <c r="D277" t="n">
-        <v>7</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E277" t="n">
         <v>12.5</v>
@@ -5710,14 +7366,20 @@
           <t>Shibura Machine India Private Limited</t>
         </is>
       </c>
-      <c r="B278" t="n">
-        <v>1</v>
-      </c>
-      <c r="C278" t="n">
-        <v>0</v>
-      </c>
-      <c r="D278" t="n">
-        <v>1</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E278" t="n">
         <v>0</v>
@@ -5729,14 +7391,20 @@
           <t>Shiv Mahima Enterprises</t>
         </is>
       </c>
-      <c r="B279" t="n">
-        <v>3</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0</v>
-      </c>
-      <c r="D279" t="n">
-        <v>3</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E279" t="n">
         <v>0</v>
@@ -5748,14 +7416,20 @@
           <t>Shiv Shakti Packaging Industries</t>
         </is>
       </c>
-      <c r="B280" t="n">
-        <v>1</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0</v>
-      </c>
-      <c r="D280" t="n">
-        <v>1</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E280" t="n">
         <v>0</v>
@@ -5767,14 +7441,20 @@
           <t>Shree Ganesh Engineering Works</t>
         </is>
       </c>
-      <c r="B281" t="n">
-        <v>1</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0</v>
-      </c>
-      <c r="D281" t="n">
-        <v>1</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E281" t="n">
         <v>0</v>
@@ -5786,14 +7466,20 @@
           <t>Shree Ganesh Industries</t>
         </is>
       </c>
-      <c r="B282" t="n">
-        <v>10</v>
-      </c>
-      <c r="C282" t="n">
-        <v>9</v>
-      </c>
-      <c r="D282" t="n">
-        <v>1</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E282" t="n">
         <v>90</v>
@@ -5805,14 +7491,20 @@
           <t>Shree Momai Trading Company</t>
         </is>
       </c>
-      <c r="B283" t="n">
-        <v>3</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>2</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E283" t="n">
         <v>33.33</v>
@@ -5824,14 +7516,20 @@
           <t>Siddharth Enterprises</t>
         </is>
       </c>
-      <c r="B284" t="n">
-        <v>4</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>3</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E284" t="n">
         <v>25</v>
@@ -5843,14 +7541,20 @@
           <t>Super shakti trading co</t>
         </is>
       </c>
-      <c r="B285" t="n">
-        <v>8</v>
-      </c>
-      <c r="C285" t="n">
-        <v>8</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E285" t="n">
         <v>100</v>
@@ -5862,14 +7566,20 @@
           <t>Supreme Innovations</t>
         </is>
       </c>
-      <c r="B286" t="n">
-        <v>8</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4</v>
-      </c>
-      <c r="D286" t="n">
-        <v>4</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E286" t="n">
         <v>50</v>
@@ -5881,14 +7591,20 @@
           <t>Sushma Tiwari</t>
         </is>
       </c>
-      <c r="B287" t="n">
-        <v>3</v>
-      </c>
-      <c r="C287" t="n">
-        <v>2</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E287" t="n">
         <v>66.67</v>
@@ -5900,14 +7616,20 @@
           <t>Swastik Enterprises</t>
         </is>
       </c>
-      <c r="B288" t="n">
-        <v>7</v>
-      </c>
-      <c r="C288" t="n">
-        <v>3</v>
-      </c>
-      <c r="D288" t="n">
-        <v>4</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E288" t="n">
         <v>42.86</v>
@@ -5919,14 +7641,20 @@
           <t>TANISHA ENTERPRISES</t>
         </is>
       </c>
-      <c r="B289" t="n">
-        <v>13</v>
-      </c>
-      <c r="C289" t="n">
-        <v>5</v>
-      </c>
-      <c r="D289" t="n">
-        <v>8</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E289" t="n">
         <v>38.46</v>
@@ -5938,14 +7666,20 @@
           <t>TELCON BIMETALS</t>
         </is>
       </c>
-      <c r="B290" t="n">
-        <v>4</v>
-      </c>
-      <c r="C290" t="n">
-        <v>3</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E290" t="n">
         <v>75</v>
@@ -5957,14 +7691,20 @@
           <t>TIRUPATI SALES CORPORATION</t>
         </is>
       </c>
-      <c r="B291" t="n">
-        <v>10</v>
-      </c>
-      <c r="C291" t="n">
-        <v>2</v>
-      </c>
-      <c r="D291" t="n">
-        <v>8</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E291" t="n">
         <v>20</v>
@@ -5976,14 +7716,20 @@
           <t>TISO INDUSTRIES</t>
         </is>
       </c>
-      <c r="B292" t="n">
-        <v>16</v>
-      </c>
-      <c r="C292" t="n">
-        <v>13</v>
-      </c>
-      <c r="D292" t="n">
-        <v>3</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E292" t="n">
         <v>81.25</v>
@@ -5995,14 +7741,20 @@
           <t>TOTAL POLY PRINT PRIVATE LIMITED</t>
         </is>
       </c>
-      <c r="B293" t="n">
-        <v>6</v>
-      </c>
-      <c r="C293" t="n">
-        <v>1</v>
-      </c>
-      <c r="D293" t="n">
-        <v>5</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E293" t="n">
         <v>16.67</v>
@@ -6014,14 +7766,20 @@
           <t>TTR Enterprises</t>
         </is>
       </c>
-      <c r="B294" t="n">
-        <v>4</v>
-      </c>
-      <c r="C294" t="n">
-        <v>4</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E294" t="n">
         <v>100</v>
@@ -6033,14 +7791,20 @@
           <t>TWOBROS AND CO</t>
         </is>
       </c>
-      <c r="B295" t="n">
-        <v>4</v>
-      </c>
-      <c r="C295" t="n">
-        <v>1</v>
-      </c>
-      <c r="D295" t="n">
-        <v>3</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E295" t="n">
         <v>25</v>
@@ -6052,14 +7816,20 @@
           <t>URVI PLASTIC INDUSTRIES</t>
         </is>
       </c>
-      <c r="B296" t="n">
-        <v>13</v>
-      </c>
-      <c r="C296" t="n">
-        <v>12</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E296" t="n">
         <v>92.31</v>
@@ -6071,14 +7841,20 @@
           <t>URVI PLASTIC INDUSTRIES - HD</t>
         </is>
       </c>
-      <c r="B297" t="n">
-        <v>2</v>
-      </c>
-      <c r="C297" t="n">
-        <v>2</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E297" t="n">
         <v>100</v>
@@ -6090,14 +7866,20 @@
           <t>Unimaxe Switchgear</t>
         </is>
       </c>
-      <c r="B298" t="n">
-        <v>4</v>
-      </c>
-      <c r="C298" t="n">
-        <v>2</v>
-      </c>
-      <c r="D298" t="n">
-        <v>2</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E298" t="n">
         <v>50</v>
@@ -6109,14 +7891,20 @@
           <t>Unnati Spring Technology</t>
         </is>
       </c>
-      <c r="B299" t="n">
-        <v>2</v>
-      </c>
-      <c r="C299" t="n">
-        <v>0</v>
-      </c>
-      <c r="D299" t="n">
-        <v>2</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -6128,14 +7916,20 @@
           <t>Uttam Nayak</t>
         </is>
       </c>
-      <c r="B300" t="n">
-        <v>17</v>
-      </c>
-      <c r="C300" t="n">
-        <v>10</v>
-      </c>
-      <c r="D300" t="n">
-        <v>7</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E300" t="n">
         <v>58.82</v>
@@ -6147,14 +7941,20 @@
           <t>V S ENTERPRISES</t>
         </is>
       </c>
-      <c r="B301" t="n">
-        <v>3</v>
-      </c>
-      <c r="C301" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" t="n">
-        <v>3</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E301" t="n">
         <v>0</v>
@@ -6166,14 +7966,20 @@
           <t>VARAHI MATA ENTERPRISE</t>
         </is>
       </c>
-      <c r="B302" t="n">
-        <v>13</v>
-      </c>
-      <c r="C302" t="n">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>7</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E302" t="n">
         <v>46.15</v>
@@ -6185,14 +7991,20 @@
           <t>VENUS COLOURANTS</t>
         </is>
       </c>
-      <c r="B303" t="n">
-        <v>20</v>
-      </c>
-      <c r="C303" t="n">
-        <v>19</v>
-      </c>
-      <c r="D303" t="n">
-        <v>1</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E303" t="n">
         <v>95</v>
@@ -6204,14 +8016,20 @@
           <t>VENUS PRINTS</t>
         </is>
       </c>
-      <c r="B304" t="n">
-        <v>3</v>
-      </c>
-      <c r="C304" t="n">
-        <v>3</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E304" t="n">
         <v>100</v>
@@ -6223,14 +8041,20 @@
           <t>VIJAY KUMAR TRIPATHI</t>
         </is>
       </c>
-      <c r="B305" t="n">
-        <v>13</v>
-      </c>
-      <c r="C305" t="n">
-        <v>11</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E305" t="n">
         <v>84.62</v>
@@ -6242,14 +8066,20 @@
           <t>VIKAS AUTOMATES</t>
         </is>
       </c>
-      <c r="B306" t="n">
-        <v>8</v>
-      </c>
-      <c r="C306" t="n">
-        <v>8</v>
-      </c>
-      <c r="D306" t="n">
-        <v>0</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E306" t="n">
         <v>100</v>
@@ -6261,14 +8091,20 @@
           <t>VIMALNATH BRASS INDUSTRIES</t>
         </is>
       </c>
-      <c r="B307" t="n">
-        <v>12</v>
-      </c>
-      <c r="C307" t="n">
-        <v>6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>6</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E307" t="n">
         <v>50</v>
@@ -6280,14 +8116,20 @@
           <t>VISHAL PRECISION MOULDS</t>
         </is>
       </c>
-      <c r="B308" t="n">
-        <v>2</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1</v>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E308" t="n">
         <v>50</v>
@@ -6299,14 +8141,20 @@
           <t>VISION INDUSTRIALS</t>
         </is>
       </c>
-      <c r="B309" t="n">
-        <v>1</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E309" t="n">
         <v>100</v>
@@ -6318,14 +8166,20 @@
           <t>VIVANI ELECTRONICS</t>
         </is>
       </c>
-      <c r="B310" t="n">
-        <v>9</v>
-      </c>
-      <c r="C310" t="n">
-        <v>4</v>
-      </c>
-      <c r="D310" t="n">
-        <v>5</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E310" t="n">
         <v>44.44</v>
@@ -6337,14 +8191,20 @@
           <t>Vardan Enterprises</t>
         </is>
       </c>
-      <c r="B311" t="n">
-        <v>10</v>
-      </c>
-      <c r="C311" t="n">
-        <v>10</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E311" t="n">
         <v>100</v>
@@ -6356,14 +8216,20 @@
           <t>Veda Excom Pvt Ltd</t>
         </is>
       </c>
-      <c r="B312" t="n">
-        <v>8</v>
-      </c>
-      <c r="C312" t="n">
-        <v>3</v>
-      </c>
-      <c r="D312" t="n">
-        <v>5</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E312" t="n">
         <v>37.5</v>
@@ -6375,14 +8241,20 @@
           <t>Venus Industries</t>
         </is>
       </c>
-      <c r="B313" t="n">
-        <v>22</v>
-      </c>
-      <c r="C313" t="n">
-        <v>9</v>
-      </c>
-      <c r="D313" t="n">
-        <v>13</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E313" t="n">
         <v>40.91</v>
@@ -6394,14 +8266,20 @@
           <t>Vivek Kumar</t>
         </is>
       </c>
-      <c r="B314" t="n">
-        <v>196</v>
-      </c>
-      <c r="C314" t="n">
-        <v>195</v>
-      </c>
-      <c r="D314" t="n">
-        <v>1</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E314" t="n">
         <v>99.48999999999999</v>
@@ -6413,14 +8291,20 @@
           <t>WANNENG TRADING COMPANY</t>
         </is>
       </c>
-      <c r="B315" t="n">
-        <v>1</v>
-      </c>
-      <c r="C315" t="n">
-        <v>1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E315" t="n">
         <v>100</v>
@@ -6432,14 +8316,20 @@
           <t>WILSON ENGINEERING INDUSTRY</t>
         </is>
       </c>
-      <c r="B316" t="n">
-        <v>11</v>
-      </c>
-      <c r="C316" t="n">
-        <v>9</v>
-      </c>
-      <c r="D316" t="n">
-        <v>2</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E316" t="n">
         <v>81.81999999999999</v>
@@ -6451,14 +8341,20 @@
           <t>WISTO TECH</t>
         </is>
       </c>
-      <c r="B317" t="n">
-        <v>3</v>
-      </c>
-      <c r="C317" t="n">
-        <v>3</v>
-      </c>
-      <c r="D317" t="n">
-        <v>0</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E317" t="n">
         <v>100</v>
@@ -6470,14 +8366,20 @@
           <t>WITCO POTTERIES</t>
         </is>
       </c>
-      <c r="B318" t="n">
-        <v>8</v>
-      </c>
-      <c r="C318" t="n">
-        <v>2</v>
-      </c>
-      <c r="D318" t="n">
-        <v>6</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E318" t="n">
         <v>25</v>
@@ -6489,14 +8391,20 @@
           <t>Wirecom India Pvt. Ltd</t>
         </is>
       </c>
-      <c r="B319" t="n">
-        <v>9</v>
-      </c>
-      <c r="C319" t="n">
-        <v>0</v>
-      </c>
-      <c r="D319" t="n">
-        <v>9</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -6508,14 +8416,20 @@
           <t>YAASHVI ENTERPRISES</t>
         </is>
       </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="n">
-        <v>0</v>
-      </c>
-      <c r="D320" t="n">
-        <v>1</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -6527,14 +8441,20 @@
           <t>Yamuna Brass Industries</t>
         </is>
       </c>
-      <c r="B321" t="n">
-        <v>3</v>
-      </c>
-      <c r="C321" t="n">
-        <v>0</v>
-      </c>
-      <c r="D321" t="n">
-        <v>3</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -6546,14 +8466,20 @@
           <t>Yogi Tilak industries</t>
         </is>
       </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
-      <c r="C322" t="n">
-        <v>0</v>
-      </c>
-      <c r="D322" t="n">
-        <v>1</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E322" t="n">
         <v>0</v>
@@ -6565,14 +8491,20 @@
           <t>ZODIAC METAL STRIPS LTD</t>
         </is>
       </c>
-      <c r="B323" t="n">
-        <v>3</v>
-      </c>
-      <c r="C323" t="n">
-        <v>3</v>
-      </c>
-      <c r="D323" t="n">
-        <v>0</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E323" t="n">
         <v>100</v>
@@ -6584,14 +8516,20 @@
           <t>Zenith Spray &amp; Aerosols (P) Ltd</t>
         </is>
       </c>
-      <c r="B324" t="n">
-        <v>6</v>
-      </c>
-      <c r="C324" t="n">
-        <v>2</v>
-      </c>
-      <c r="D324" t="n">
-        <v>4</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E324" t="n">
         <v>33.33</v>
@@ -6625,13 +8563,6 @@
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr"/>
     </row>
-    <row r="329">
-      <c r="A329" t="inlineStr"/>
-      <c r="B329" t="inlineStr"/>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
